--- a/src/currentCurrencyTrades/assets/report.xlsx
+++ b/src/currentCurrencyTrades/assets/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Atualização das taxas correntes de câmbio: Relatório da Ultima actividade</t>
   </si>
@@ -37,7 +37,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>t1</t>
+    <t>T1</t>
   </si>
   <si>
     <t>CurrentCurrencyTrades</t>
@@ -49,13 +49,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Test do Error</t>
-  </si>
-  <si>
-    <t>2022-09-04 17:40:07</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>Could not fetch the exchange Rates, the url is https://www.bancomoc.mz/Files/REFR/ZMMREFR.pdf</t>
+  </si>
+  <si>
+    <t>2022-09-04 20:06:51</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G5"/>
+  <dimension ref="B1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,28 +498,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:G6">
+  <conditionalFormatting sqref="A4:G5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>

--- a/src/currentCurrencyTrades/assets/report.xlsx
+++ b/src/currentCurrencyTrades/assets/report.xlsx
@@ -49,10 +49,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Could not fetch the exchange Rates, the url is https://www.bancomoc.mz/Files/REFR/ZMMREFR.pdf</t>
-  </si>
-  <si>
-    <t>2022-09-04 20:06:51</t>
+    <t>Could not fetch the exchange Rates, the url is https://www.bancomoc.mz/Files/REFR/ZMIREFR.pdf</t>
+  </si>
+  <si>
+    <t>2022-09-04 22:32:28</t>
   </si>
 </sst>
 </file>

--- a/src/currentCurrencyTrades/assets/report.xlsx
+++ b/src/currentCurrencyTrades/assets/report.xlsx
@@ -49,10 +49,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Could not fetch the exchange Rates, the url is https://www.bancomoc.mz/Files/REFR/ZMIREFR.pdf</t>
-  </si>
-  <si>
-    <t>2022-09-04 22:32:28</t>
+    <t>Coould not fetch interest Rates. Invalid date 2022-09-05, valid date format exemple: 05/09/2022</t>
+  </si>
+  <si>
+    <t>2022-09-05 21:18:10</t>
   </si>
 </sst>
 </file>

--- a/src/currentCurrencyTrades/assets/report.xlsx
+++ b/src/currentCurrencyTrades/assets/report.xlsx
@@ -49,10 +49,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Coould not fetch interest Rates. Invalid date 2022-09-05, valid date format exemple: 05/09/2022</t>
-  </si>
-  <si>
-    <t>2022-09-05 21:18:10</t>
+    <t>Was not able to save exchange rates Task.</t>
+  </si>
+  <si>
+    <t>2022-09-07 16:08:18</t>
   </si>
 </sst>
 </file>

--- a/src/currentCurrencyTrades/assets/report.xlsx
+++ b/src/currentCurrencyTrades/assets/report.xlsx
@@ -49,10 +49,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Was not able to save exchange rates Task.</t>
-  </si>
-  <si>
-    <t>2022-09-07 16:08:18</t>
+    <t>The nampula CPI has a format error</t>
+  </si>
+  <si>
+    <t>2022-09-08 00:50:34</t>
   </si>
 </sst>
 </file>

--- a/src/currentCurrencyTrades/assets/report.xlsx
+++ b/src/currentCurrencyTrades/assets/report.xlsx
@@ -49,10 +49,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>The nampula CPI has a format error</t>
-  </si>
-  <si>
-    <t>2022-09-08 00:50:34</t>
+    <t>Was not able to save the task of CPI.</t>
+  </si>
+  <si>
+    <t>2022-09-08 19:05:04</t>
   </si>
 </sst>
 </file>

--- a/src/currentCurrencyTrades/assets/report.xlsx
+++ b/src/currentCurrencyTrades/assets/report.xlsx
@@ -52,7 +52,7 @@
     <t>Was not able to save the task of CPI.</t>
   </si>
   <si>
-    <t>2022-09-08 19:05:04</t>
+    <t>2022-09-08 22:21:16</t>
   </si>
 </sst>
 </file>

--- a/src/currentCurrencyTrades/assets/report.xlsx
+++ b/src/currentCurrencyTrades/assets/report.xlsx
@@ -52,7 +52,7 @@
     <t>Was not able to save the task of CPI.</t>
   </si>
   <si>
-    <t>2022-09-08 22:21:16</t>
+    <t>2022-09-09 17:11:53</t>
   </si>
 </sst>
 </file>

--- a/src/currentCurrencyTrades/assets/report.xlsx
+++ b/src/currentCurrencyTrades/assets/report.xlsx
@@ -52,7 +52,7 @@
     <t>Was not able to save the task of CPI.</t>
   </si>
   <si>
-    <t>2022-09-09 17:11:53</t>
+    <t>2022-09-10 09:37:04</t>
   </si>
 </sst>
 </file>

--- a/src/currentCurrencyTrades/assets/report.xlsx
+++ b/src/currentCurrencyTrades/assets/report.xlsx
@@ -43,7 +43,7 @@
     <t>CurrentCurrencyTrades</t>
   </si>
   <si>
-    <t>Update of current exchange rates</t>
+    <t>Current exchange rates update</t>
   </si>
   <si>
     <t>No</t>
@@ -52,7 +52,7 @@
     <t>Was not able to save the task of CPI.</t>
   </si>
   <si>
-    <t>2022-09-10 09:37:04</t>
+    <t>2022-09-19 18:52:43</t>
   </si>
 </sst>
 </file>

--- a/src/currentCurrencyTrades/assets/report.xlsx
+++ b/src/currentCurrencyTrades/assets/report.xlsx
@@ -37,7 +37,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>T1</t>
+    <t>01-job</t>
   </si>
   <si>
     <t>CurrentCurrencyTrades</t>
@@ -52,7 +52,7 @@
     <t>Was not able to save the task of CPI.</t>
   </si>
   <si>
-    <t>2022-09-19 18:52:43</t>
+    <t>2022-09-22 11:56:50</t>
   </si>
 </sst>
 </file>

--- a/src/currentCurrencyTrades/assets/report.xlsx
+++ b/src/currentCurrencyTrades/assets/report.xlsx
@@ -49,10 +49,10 @@
     <t>No</t>
   </si>
   <si>
-    <t>Was not able to save the task of CPI.</t>
-  </si>
-  <si>
-    <t>2022-09-22 11:56:50</t>
+    <t>Was not able to save the task of exchange rates.</t>
+  </si>
+  <si>
+    <t>2022-09-26 12:39:49</t>
   </si>
 </sst>
 </file>

--- a/src/currentCurrencyTrades/assets/report.xlsx
+++ b/src/currentCurrencyTrades/assets/report.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Atualização das taxas correntes de câmbio: Relatório da Ultima actividade</t>
   </si>
   <si>
-    <t>Task Code</t>
+    <t>Job Code</t>
   </si>
   <si>
     <t>Name</t>
@@ -37,7 +37,7 @@
     <t>date</t>
   </si>
   <si>
-    <t>01-job</t>
+    <t>01-job-currency-trades</t>
   </si>
   <si>
     <t>CurrentCurrencyTrades</t>
@@ -49,10 +49,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>Was not able to save the task of exchange rates.</t>
-  </si>
-  <si>
-    <t>2022-09-26 12:39:49</t>
+    <t>The Iraque currency has a format error</t>
   </si>
 </sst>
 </file>
@@ -494,8 +491,8 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
+      <c r="G4">
+        <v>44851.68070877405</v>
       </c>
     </row>
   </sheetData>

--- a/src/currentCurrencyTrades/assets/report.xlsx
+++ b/src/currentCurrencyTrades/assets/report.xlsx
@@ -49,7 +49,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>The Iraque currency has a format error</t>
+    <t>Was not able to save the task of CPI.</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>44851.68070877405</v>
+        <v>44856.28956758287</v>
       </c>
     </row>
   </sheetData>
